--- a/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 7,2</t>
+          <t>-3,18; 6,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 13,57</t>
+          <t>-2,03; 13,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 4,21</t>
+          <t>-9,89; 3,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -0,47</t>
+          <t>-18,83; -0,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,4; —</t>
+          <t>-78,62; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 403,59</t>
+          <t>-31,85; 381,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-88,08; 134,43</t>
+          <t>-88,72; 105,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-66,48; -0,23</t>
+          <t>-67,19; -2,06</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,5</t>
+          <t>0,01; 4,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,59</t>
+          <t>-1,33; 4,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,71</t>
+          <t>-2,39; 3,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,51</t>
+          <t>-4,29; 2,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 230,57</t>
+          <t>-2,95; 243,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 113,56</t>
+          <t>-20,1; 115,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 68,73</t>
+          <t>-28,52; 75,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 25,86</t>
+          <t>-31,44; 26,09</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,42</t>
+          <t>-1,92; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,58</t>
+          <t>-0,93; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,27</t>
+          <t>-0,09; 4,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,31</t>
+          <t>-1,49; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 53,48</t>
+          <t>-28,77; 52,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 69,07</t>
+          <t>-10,55; 65,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 107,52</t>
+          <t>-2,56; 103,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 43,04</t>
+          <t>-10,29; 43,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,9</t>
+          <t>-2,45; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,09</t>
+          <t>-1,96; 4,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,16</t>
+          <t>-0,36; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 35,56</t>
+          <t>-2,22; 36,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 67,2</t>
+          <t>-35,32; 64,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 69,53</t>
+          <t>-22,29; 70,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 186,95</t>
+          <t>-11,77; 182,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 313,03</t>
+          <t>-16,31; 302,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,53</t>
+          <t>0,17; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,76</t>
+          <t>-0,78; 4,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,44</t>
+          <t>-1,75; 3,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,46</t>
+          <t>-1,23; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 99,9</t>
+          <t>1,7; 95,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 77,54</t>
+          <t>-9,67; 73,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 59,26</t>
+          <t>-21,77; 59,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 51,72</t>
+          <t>-12,85; 47,88</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,35</t>
+          <t>-0,01; 2,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,14</t>
+          <t>0,51; 3,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,65</t>
+          <t>0,18; 2,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,37</t>
+          <t>-0,59; 11,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 52,82</t>
+          <t>-0,71; 53,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 48,07</t>
+          <t>6,25; 48,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 52,06</t>
+          <t>3,05; 51,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 100,37</t>
+          <t>-5,67; 102,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>77,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,82%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-42,97%</t>
+          <t>-18,38%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,56</t>
+          <t>0,31; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 13,72</t>
+          <t>-0,49; 5,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 3,37</t>
+          <t>-2,64; 2,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,83; -0,43</t>
+          <t>-5,65; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,62; —</t>
+          <t>5,62; 195,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 381,67</t>
+          <t>-7,39; 119,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-88,72; 105,23</t>
+          <t>-32,5; 49,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,19; -2,06</t>
+          <t>-39,08; 5,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,11</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,58%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>38,14%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,3</t>
+          <t>-1,92; 2,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,62</t>
+          <t>-0,93; 4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,83</t>
+          <t>-0,09; 4,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,57</t>
+          <t>0,16; 9,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 243,11</t>
+          <t>-28,77; 52,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 115,42</t>
+          <t>-10,55; 65,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 75,05</t>
+          <t>-2,56; 103,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 26,09</t>
+          <t>0,95; 178,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>18,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>143,37%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,5</t>
+          <t>-2,45; 2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,48</t>
+          <t>-1,96; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,36</t>
+          <t>-0,36; 4,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,45</t>
+          <t>-2,32; 51,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 52,92</t>
+          <t>-35,32; 64,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 65,68</t>
+          <t>-22,29; 70,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 103,83</t>
+          <t>-11,77; 182,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 43,86</t>
+          <t>-17,72; 484,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,88</t>
+          <t>0,22; 4,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,22</t>
+          <t>-0,78; 4,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,2</t>
+          <t>-1,75; 3,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 36,13</t>
+          <t>-2,09; 2,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 64,75</t>
+          <t>3,07; 98,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 70,38</t>
+          <t>-9,67; 73,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 182,49</t>
+          <t>-21,77; 59,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 302,11</t>
+          <t>-22,26; 41,57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,42</t>
+          <t>0,04; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,62</t>
+          <t>0,51; 3,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,42</t>
+          <t>0,18; 2,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,34</t>
+          <t>-0,4; 20,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 95,46</t>
+          <t>0,69; 54,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 73,76</t>
+          <t>6,25; 48,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 59,64</t>
+          <t>3,05; 51,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 47,88</t>
+          <t>-4,4; 205,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>24,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24,31%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>24,32%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 2,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 3,25</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 2,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 11,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 53,15</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 48,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 51,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 102,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,13</t>
+          <t>0,16; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,38</t>
+          <t>-0,43; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,81</t>
+          <t>-2,7; 2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,63</t>
+          <t>-6,0; 0,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 195,62</t>
+          <t>2,8; 213,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 119,63</t>
+          <t>-7,08; 120,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 49,55</t>
+          <t>-32,48; 52,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 5,72</t>
+          <t>-40,33; 4,05</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,5</t>
+          <t>-1,74; 2,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,48</t>
+          <t>-0,48; 4,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,36</t>
+          <t>-0,07; 4,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,09</t>
+          <t>0,24; 9,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 52,92</t>
+          <t>-27,42; 57,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 65,68</t>
+          <t>-5,53; 70,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 103,83</t>
+          <t>-1,12; 112,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 178,77</t>
+          <t>1,73; 174,82</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,88</t>
+          <t>-2,23; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,22</t>
+          <t>-2,12; 3,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,2</t>
+          <t>-0,37; 3,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 51,14</t>
+          <t>-2,37; 48,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 64,75</t>
+          <t>-31,78; 61,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 70,38</t>
+          <t>-24,45; 64,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 182,49</t>
+          <t>-9,05; 174,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 484,67</t>
+          <t>-17,39; 433,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,52</t>
+          <t>0,18; 4,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,62</t>
+          <t>-0,27; 4,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,42</t>
+          <t>-1,52; 3,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,88</t>
+          <t>-2,25; 2,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 98,23</t>
+          <t>2,4; 105,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 73,76</t>
+          <t>-4,46; 76,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 59,64</t>
+          <t>-17,95; 57,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 41,57</t>
+          <t>-23,25; 40,04</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,4</t>
+          <t>0,04; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,25</t>
+          <t>0,28; 3,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,52</t>
+          <t>0,15; 2,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 20,25</t>
+          <t>-0,38; 21,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 54,46</t>
+          <t>0,62; 53,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 48,27</t>
+          <t>3,63; 45,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 51,21</t>
+          <t>2,38; 51,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 205,73</t>
+          <t>-3,54; 212,75</t>
         </is>
       </c>
     </row>
